--- a/FedExApplication/bin/TestFiles/FedExRateVerification_PreProd.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -193,32 +193,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -250,7 +250,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -425,7 +425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -434,13 +434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -450,7 +450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -459,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,12 +478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -514,7 +514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -533,7 +533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -545,8 +545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
@@ -1252,22 +1252,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>